--- a/final_data_pipeline/output/325110longform_elec_options.xlsx
+++ b/final_data_pipeline/output/325110longform_elec_options.xlsx
@@ -672,7 +672,7 @@
         <v>66</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="L2">
         <v>8000</v>
@@ -687,10 +687,10 @@
         <v>169.4098799338086</v>
       </c>
       <c r="R2">
-        <v>1.025288461538461</v>
+        <v>1.03592820319873</v>
       </c>
       <c r="S2">
-        <v>1.0563</v>
+        <v>1.067704754529766</v>
       </c>
       <c r="T2">
         <v>0.02117623499172607</v>
@@ -725,7 +725,7 @@
         <v>67</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="L3">
         <v>8000</v>
@@ -772,7 +772,7 @@
         <v>67</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L4">
         <v>8000</v>
@@ -819,7 +819,7 @@
         <v>66</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L5">
         <v>8000</v>
@@ -834,10 +834,10 @@
         <v>32995.30490400347</v>
       </c>
       <c r="R5">
-        <v>1.025288461538461</v>
+        <v>0.9939102066179896</v>
       </c>
       <c r="S5">
-        <v>1.0563</v>
+        <v>1.022720671292561</v>
       </c>
       <c r="T5">
         <v>4.124413113000434</v>
@@ -872,7 +872,7 @@
         <v>67</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L6">
         <v>8000</v>
@@ -2894,7 +2894,7 @@
         <v>67</v>
       </c>
       <c r="K48">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="L48">
         <v>8000</v>
@@ -2941,7 +2941,7 @@
         <v>67</v>
       </c>
       <c r="K49">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="L49">
         <v>8000</v>
@@ -2988,7 +2988,7 @@
         <v>66</v>
       </c>
       <c r="K50">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="L50">
         <v>8000</v>
@@ -3003,10 +3003,10 @@
         <v>651265.6796054139</v>
       </c>
       <c r="R50">
-        <v>1.025288461538461</v>
+        <v>1.064821081830791</v>
       </c>
       <c r="S50">
-        <v>1.0563</v>
+        <v>1.098722912453048</v>
       </c>
       <c r="T50">
         <v>81.40820995067673</v>
@@ -3041,7 +3041,7 @@
         <v>66</v>
       </c>
       <c r="K51">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="L51">
         <v>8000</v>
@@ -3056,10 +3056,10 @@
         <v>77758.08985627412</v>
       </c>
       <c r="R51">
-        <v>1.025288461538461</v>
+        <v>1.069250338898071</v>
       </c>
       <c r="S51">
-        <v>1.0563</v>
+        <v>1.103484165522044</v>
       </c>
       <c r="T51">
         <v>9.719761232034266</v>
@@ -3094,7 +3094,7 @@
         <v>67</v>
       </c>
       <c r="K52">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="L52">
         <v>8000</v>
@@ -4616,7 +4616,7 @@
         <v>67</v>
       </c>
       <c r="K84">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L84">
         <v>8000</v>
@@ -4710,7 +4710,7 @@
         <v>67</v>
       </c>
       <c r="K86">
-        <v>10</v>
+        <v>20.22222222222222</v>
       </c>
       <c r="L86">
         <v>8000</v>
